--- a/keywords_traits.xlsx
+++ b/keywords_traits.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA PENTING\Eksperimen\Project Web\backend\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA PENTING\Eksperimen\Project Web\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29796A4A-9C68-41BF-A655-7BD199ACC6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AB6D5E-E50B-4F14-AA0F-5524AF0BD6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8397,14 +8397,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2508" workbookViewId="0">
-      <selection activeCell="F2525" sqref="F2525"/>
+    <sheetView tabSelected="1" topLeftCell="A2731" workbookViewId="0">
+      <selection activeCell="A2432" sqref="A2432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.42578125" customWidth="1"/>
-    <col min="2" max="2" width="65" customWidth="1"/>
+    <col min="1" max="1" width="49" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
